--- a/cash_flow.xlsx
+++ b/cash_flow.xlsx
@@ -14,18 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
-  <si>
-    <t>KO_cash-flow_Annual_As_Originally_Reported</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+  <si>
+    <t>MSFT_cash-flow_Annual_As_Originally_Reported</t>
   </si>
   <si>
     <t>2020</t>
@@ -34,6 +25,15 @@
     <t>2021</t>
   </si>
   <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
     <t>TTM</t>
   </si>
   <si>
@@ -58,6 +58,9 @@
     <t>Depreciation and Amortization, Non-Cash Adjustment</t>
   </si>
   <si>
+    <t>Depreciation, Non-Cash Adjustment</t>
+  </si>
+  <si>
     <t>Stock-Based Compensation, Non-Cash Adjustment</t>
   </si>
   <si>
@@ -67,25 +70,28 @@
     <t>Net Investment Income/Loss, Non-Cash Adjustment</t>
   </si>
   <si>
-    <t>Share of Profit/Loss from Associates, Joint Ventures and other Equity Investments, Non-Cash Adjustment</t>
-  </si>
-  <si>
-    <t>Net Foreign Currency Exchange Gain/Loss, Non-Cash Adjustment</t>
-  </si>
-  <si>
-    <t>Gain/Loss for Other Investment, Non-Cash Adjustment</t>
+    <t>Realized Gain/Loss on Disposal/Sale of Financial Instruments, Non-Cash Adjustment</t>
+  </si>
+  <si>
+    <t>Unrealized Gain/Loss on Financial Assets/Liabilities, Non-Cash Adjustment</t>
+  </si>
+  <si>
+    <t>Gain/Loss on Derivatives, Non-Cash Adjustment</t>
+  </si>
+  <si>
+    <t>Irregular Income/Loss, Non-Cash Adjustment</t>
+  </si>
+  <si>
+    <t>Write Down and Write off of Other Assets, Non-Cash Adjustment</t>
+  </si>
+  <si>
+    <t>Impairment of Goodwill, Non-Cash Adjustment</t>
   </si>
   <si>
     <t>Other Non-Cash Items</t>
   </si>
   <si>
-    <t>Irregular Income/Loss, Non-Cash Adjustment</t>
-  </si>
-  <si>
-    <t>Gain/Loss on Disposals, Non-Cash Adjustment</t>
-  </si>
-  <si>
-    <t>Gain/Loss on Disposal/Sale of Other Assets, Non-Cash Adjustment</t>
+    <t>Excess Tax Benefit from Stock-Based Compensation, Non-Cash Adjustment</t>
   </si>
   <si>
     <t>Changes in Operating Capital</t>
@@ -100,7 +106,7 @@
     <t>Change in Trade/Accounts Receivable</t>
   </si>
   <si>
-    <t>Change in Prepayments and Deposits</t>
+    <t>Change in Other Current Assets</t>
   </si>
   <si>
     <t>Change in Payables and Accrued Expenses</t>
@@ -115,12 +121,12 @@
     <t>Change in Taxes Payable</t>
   </si>
   <si>
+    <t>Change in Deferred Assets/Liabilities</t>
+  </si>
+  <si>
     <t>Change in Other Current Liabilities</t>
   </si>
   <si>
-    <t>Net Cash Flow from Discontinuing Operating Activities</t>
-  </si>
-  <si>
     <t>Cash Flow from Investing Activities</t>
   </si>
   <si>
@@ -133,18 +139,12 @@
     <t>Purchase of Property, Plant and Equipment</t>
   </si>
   <si>
-    <t>Sale and Disposal of Property, Plant and Equipment</t>
-  </si>
-  <si>
     <t>Purchase/Sale of Business, Net</t>
   </si>
   <si>
     <t>Purchase/Acquisition of Business</t>
   </si>
   <si>
-    <t>Sale of Business</t>
-  </si>
-  <si>
     <t>Purchase/Sale of Investments, Net</t>
   </si>
   <si>
@@ -157,9 +157,6 @@
     <t>Other Investing Cash Flow</t>
   </si>
   <si>
-    <t>Net Cash Flow from Discontinuing Investing Activities</t>
-  </si>
-  <si>
     <t>Cash Flow from Financing Activities</t>
   </si>
   <si>
@@ -178,6 +175,15 @@
     <t>Issuance of/Repayments for Debt, Net</t>
   </si>
   <si>
+    <t>Issuance of/Repayments for Short Term Debt, Net</t>
+  </si>
+  <si>
+    <t>Proceeds from Issuance of Short Term Debt</t>
+  </si>
+  <si>
+    <t>Repayments for Short Term Debt</t>
+  </si>
+  <si>
     <t>Issuance of/Repayments for Long Term Debt, Net</t>
   </si>
   <si>
@@ -193,10 +199,13 @@
     <t>Cash Dividends Paid</t>
   </si>
   <si>
+    <t>Common Stock Dividends Paid</t>
+  </si>
+  <si>
     <t>Other Financing Cash Flow</t>
   </si>
   <si>
-    <t>Net Cash Flow from Discontinuing Financing Activities</t>
+    <t>Excess Tax Benefit from Share-Based Compensation, Financing Activities</t>
   </si>
   <si>
     <t>Cash and Cash Equivalents, End of Period</t>
@@ -217,7 +226,7 @@
     <t>Change in Cash as Reported, Supplemental</t>
   </si>
   <si>
-    <t>Fiscal year ends in Dec 31 | USD</t>
+    <t>Fiscal year ends in Jun 30 | USD</t>
   </si>
 </sst>
 </file>
@@ -575,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -609,22 +618,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>7106000000</v>
+        <v>60675000000</v>
       </c>
       <c r="C2">
-        <v>7627000000</v>
+        <v>76740000000</v>
       </c>
       <c r="D2">
-        <v>10471000000</v>
+        <v>89035000000</v>
       </c>
       <c r="E2">
-        <v>9844000000</v>
+        <v>87582000000</v>
       </c>
       <c r="F2">
-        <v>12625000000</v>
+        <v>118548000000</v>
       </c>
       <c r="G2">
-        <v>11462000000</v>
+        <v>130710000000</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -632,22 +641,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>6995000000</v>
+        <v>60675000000</v>
       </c>
       <c r="C3">
-        <v>7320000000</v>
+        <v>76740000000</v>
       </c>
       <c r="D3">
-        <v>10471000000</v>
+        <v>89035000000</v>
       </c>
       <c r="E3">
-        <v>9844000000</v>
+        <v>87582000000</v>
       </c>
       <c r="F3">
-        <v>12625000000</v>
+        <v>118548000000</v>
       </c>
       <c r="G3">
-        <v>11462000000</v>
+        <v>130710000000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -655,22 +664,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>6995000000</v>
+        <v>60675000000</v>
       </c>
       <c r="C4">
-        <v>7320000000</v>
+        <v>76740000000</v>
       </c>
       <c r="D4">
-        <v>10471000000</v>
+        <v>89035000000</v>
       </c>
       <c r="E4">
-        <v>9844000000</v>
+        <v>87582000000</v>
       </c>
       <c r="F4">
-        <v>12625000000</v>
+        <v>118548000000</v>
       </c>
       <c r="G4">
-        <v>11462000000</v>
+        <v>130710000000</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -678,22 +687,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1182000000</v>
+        <v>44281000000</v>
       </c>
       <c r="C5">
-        <v>6727000000</v>
+        <v>61271000000</v>
       </c>
       <c r="D5">
-        <v>8985000000</v>
+        <v>72738000000</v>
       </c>
       <c r="E5">
-        <v>7768000000</v>
+        <v>72361000000</v>
       </c>
       <c r="F5">
-        <v>9804000000</v>
+        <v>88136000000</v>
       </c>
       <c r="G5">
-        <v>9965000000</v>
+        <v>96635000000</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -701,22 +710,22 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>2284000000</v>
+        <v>17877000000</v>
       </c>
       <c r="C6">
-        <v>1795000000</v>
+        <v>16405000000</v>
       </c>
       <c r="D6">
-        <v>1120000000</v>
+        <v>15851000000</v>
       </c>
       <c r="E6">
-        <v>1386000000</v>
+        <v>17609000000</v>
       </c>
       <c r="F6">
-        <v>1496000000</v>
+        <v>28588000000</v>
       </c>
       <c r="G6">
-        <v>1599000000</v>
+        <v>35544000000</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -724,22 +733,22 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>1260000000</v>
+        <v>12796000000</v>
       </c>
       <c r="C7">
-        <v>1086000000</v>
+        <v>11686000000</v>
       </c>
       <c r="D7">
-        <v>1365000000</v>
+        <v>14460000000</v>
       </c>
       <c r="E7">
-        <v>1536000000</v>
+        <v>13861000000</v>
       </c>
       <c r="F7">
-        <v>1452000000</v>
+        <v>22287000000</v>
       </c>
       <c r="G7">
-        <v>1294000000</v>
+        <v>29330000000</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -747,22 +756,22 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>1260000000</v>
+        <v>12796000000</v>
       </c>
       <c r="C8">
-        <v>1086000000</v>
+        <v>11686000000</v>
       </c>
       <c r="D8">
-        <v>1365000000</v>
+        <v>14460000000</v>
       </c>
       <c r="E8">
-        <v>1536000000</v>
+        <v>13861000000</v>
       </c>
       <c r="F8">
-        <v>1452000000</v>
+        <v>22287000000</v>
       </c>
       <c r="G8">
-        <v>1294000000</v>
+        <v>29330000000</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -770,22 +779,22 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>219000000</v>
+        <v>12796000000</v>
       </c>
       <c r="C9">
-        <v>225000000</v>
+        <v>11686000000</v>
       </c>
       <c r="D9">
-        <v>201000000</v>
+        <v>14460000000</v>
       </c>
       <c r="E9">
-        <v>126000000</v>
+        <v>13861000000</v>
       </c>
       <c r="F9">
-        <v>337000000</v>
+        <v>22287000000</v>
       </c>
       <c r="G9">
-        <v>374000000</v>
+        <v>29330000000</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -793,22 +802,22 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>-1256000000</v>
+        <v>5289000000</v>
       </c>
       <c r="C10">
-        <v>-450000000</v>
+        <v>6118000000</v>
       </c>
       <c r="D10">
-        <v>-280000000</v>
+        <v>7502000000</v>
       </c>
       <c r="E10">
-        <v>-18000000</v>
+        <v>9611000000</v>
       </c>
       <c r="F10">
-        <v>894000000</v>
+        <v>10734000000</v>
       </c>
       <c r="G10">
-        <v>33000000</v>
+        <v>11597000000</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -816,22 +825,22 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>-347000000</v>
+        <v>11000000</v>
       </c>
       <c r="C11">
-        <v>-495000000</v>
+        <v>-150000000</v>
       </c>
       <c r="D11">
-        <v>-330000000</v>
+        <v>-5702000000</v>
       </c>
       <c r="E11">
-        <v>-599000000</v>
+        <v>-6059000000</v>
       </c>
       <c r="F11">
-        <v>-529000000</v>
+        <v>-4738000000</v>
       </c>
       <c r="G11">
-        <v>-494000000</v>
+        <v>-5980000000</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -839,22 +848,22 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>-628000000</v>
+        <v>-352000000</v>
       </c>
       <c r="C12">
-        <v>-457000000</v>
+        <v>-1262000000</v>
       </c>
       <c r="D12">
-        <v>-421000000</v>
+        <v>-510000000</v>
       </c>
       <c r="E12">
-        <v>-511000000</v>
+        <v>166000000</v>
       </c>
       <c r="F12">
-        <v>-615000000</v>
+        <v>99000000</v>
       </c>
       <c r="G12">
-        <v>-761000000</v>
+        <v>-323000000</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -862,50 +871,68 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>281000000</v>
+        <v>-96000000</v>
       </c>
       <c r="C13">
-        <v>-38000000</v>
+        <v>-188000000</v>
       </c>
       <c r="D13">
-        <v>91000000</v>
+        <v>-53000000</v>
       </c>
       <c r="E13">
-        <v>-88000000</v>
+        <v>13000000</v>
       </c>
       <c r="F13">
-        <v>86000000</v>
+        <v>58000000</v>
       </c>
       <c r="G13">
-        <v>267000000</v>
+        <v>-17000000</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>19</v>
       </c>
+      <c r="B14">
+        <v>-69000000</v>
+      </c>
+      <c r="C14">
+        <v>-1057000000</v>
+      </c>
+      <c r="D14">
+        <v>-509000000</v>
+      </c>
+      <c r="E14">
+        <v>-303000000</v>
+      </c>
+      <c r="F14">
+        <v>-146000000</v>
+      </c>
+      <c r="G14">
+        <v>-562000000</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>20</v>
       </c>
       <c r="B15">
-        <v>949000000</v>
+        <v>-187000000</v>
       </c>
       <c r="C15">
-        <v>1240000000</v>
+        <v>-17000000</v>
       </c>
       <c r="D15">
-        <v>631000000</v>
+        <v>52000000</v>
       </c>
       <c r="E15">
-        <v>341000000</v>
+        <v>456000000</v>
       </c>
       <c r="F15">
-        <v>-658000000</v>
+        <v>187000000</v>
       </c>
       <c r="G15">
-        <v>392000000</v>
+        <v>256000000</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -913,13 +940,22 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>1459000000</v>
+        <v>133000000</v>
       </c>
       <c r="C16">
-        <v>189000000</v>
+        <v>13000000</v>
       </c>
       <c r="D16">
-        <v>-467000000</v>
+        <v>101000000</v>
+      </c>
+      <c r="E16">
+        <v>30000000</v>
+      </c>
+      <c r="F16">
+        <v>206000000</v>
+      </c>
+      <c r="G16">
+        <v>920000000</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -927,90 +963,60 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>1459000000</v>
+        <v>133000000</v>
       </c>
       <c r="C17">
-        <v>189000000</v>
+        <v>13000000</v>
       </c>
       <c r="D17">
-        <v>-467000000</v>
+        <v>101000000</v>
+      </c>
+      <c r="E17">
+        <v>30000000</v>
+      </c>
+      <c r="F17">
+        <v>206000000</v>
+      </c>
+      <c r="G17">
+        <v>920000000</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="B18">
-        <v>1459000000</v>
-      </c>
-      <c r="C18">
-        <v>189000000</v>
-      </c>
-      <c r="D18">
-        <v>-467000000</v>
-      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>24</v>
       </c>
-      <c r="B19">
-        <v>3529000000</v>
-      </c>
-      <c r="C19">
-        <v>-1202000000</v>
-      </c>
-      <c r="D19">
-        <v>366000000</v>
-      </c>
-      <c r="E19">
-        <v>690000000</v>
-      </c>
-      <c r="F19">
-        <v>1325000000</v>
-      </c>
-      <c r="G19">
-        <v>-102000000</v>
-      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>25</v>
       </c>
-      <c r="B20">
-        <v>-355000000</v>
-      </c>
-      <c r="C20">
-        <v>-171000000</v>
-      </c>
-      <c r="D20">
-        <v>-183000000</v>
-      </c>
-      <c r="E20">
-        <v>99000000</v>
-      </c>
-      <c r="F20">
-        <v>-135000000</v>
-      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>26</v>
       </c>
       <c r="B21">
-        <v>-141000000</v>
+        <v>-1483000000</v>
       </c>
       <c r="C21">
-        <v>66000000</v>
+        <v>-936000000</v>
       </c>
       <c r="D21">
-        <v>-158000000</v>
+        <v>446000000</v>
       </c>
       <c r="E21">
-        <v>882000000</v>
+        <v>-2388000000</v>
       </c>
       <c r="F21">
-        <v>-225000000</v>
+        <v>1824000000</v>
+      </c>
+      <c r="G21">
+        <v>-1469000000</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1018,19 +1024,22 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>-141000000</v>
+        <v>168000000</v>
       </c>
       <c r="C22">
-        <v>66000000</v>
+        <v>-737000000</v>
       </c>
       <c r="D22">
-        <v>-158000000</v>
+        <v>-1123000000</v>
       </c>
       <c r="E22">
-        <v>882000000</v>
+        <v>1242000000</v>
       </c>
       <c r="F22">
-        <v>-225000000</v>
+        <v>1284000000</v>
+      </c>
+      <c r="G22">
+        <v>445000000</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1038,19 +1047,22 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>571000000</v>
+        <v>-2577000000</v>
       </c>
       <c r="C23">
-        <v>-221000000</v>
+        <v>-6481000000</v>
       </c>
       <c r="D23">
-        <v>-87000000</v>
+        <v>-6834000000</v>
       </c>
       <c r="E23">
-        <v>78000000</v>
+        <v>-4087000000</v>
       </c>
       <c r="F23">
-        <v>-241000000</v>
+        <v>-7191000000</v>
+      </c>
+      <c r="G23">
+        <v>-7648000000</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1058,19 +1070,22 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>-598000000</v>
+        <v>-2577000000</v>
       </c>
       <c r="C24">
-        <v>-301000000</v>
+        <v>-6481000000</v>
       </c>
       <c r="D24">
-        <v>1414000000</v>
+        <v>-6834000000</v>
       </c>
       <c r="E24">
-        <v>-876000000</v>
+        <v>-4087000000</v>
       </c>
       <c r="F24">
-        <v>2277000000</v>
+        <v>-7191000000</v>
+      </c>
+      <c r="G24">
+        <v>-7648000000</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1078,19 +1093,22 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>-598000000</v>
+        <v>-3367000000</v>
       </c>
       <c r="C25">
-        <v>-301000000</v>
+        <v>-4391000000</v>
       </c>
       <c r="D25">
-        <v>1414000000</v>
+        <v>-3514000000</v>
       </c>
       <c r="E25">
-        <v>-876000000</v>
+        <v>-4824000000</v>
       </c>
       <c r="F25">
-        <v>2277000000</v>
+        <v>-8465000000</v>
+      </c>
+      <c r="G25">
+        <v>-6494000000</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1098,19 +1116,22 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>-445000000</v>
+        <v>-613000000</v>
       </c>
       <c r="C26">
-        <v>-289000000</v>
+        <v>489000000</v>
       </c>
       <c r="D26">
-        <v>1318000000</v>
+        <v>3639000000</v>
       </c>
       <c r="E26">
-        <v>-860000000</v>
+        <v>-3079000000</v>
       </c>
       <c r="F26">
-        <v>2843000000</v>
+        <v>5232000000</v>
+      </c>
+      <c r="G26">
+        <v>3538000000</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1118,19 +1139,22 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>-153000000</v>
+        <v>-613000000</v>
       </c>
       <c r="C27">
-        <v>-12000000</v>
+        <v>489000000</v>
       </c>
       <c r="D27">
-        <v>96000000</v>
+        <v>3639000000</v>
       </c>
       <c r="E27">
-        <v>-16000000</v>
+        <v>-3079000000</v>
       </c>
       <c r="F27">
-        <v>-566000000</v>
+        <v>5232000000</v>
+      </c>
+      <c r="G27">
+        <v>3538000000</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1138,19 +1162,22 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>4052000000</v>
+        <v>3018000000</v>
       </c>
       <c r="C28">
-        <v>-575000000</v>
+        <v>2798000000</v>
       </c>
       <c r="D28">
-        <v>-620000000</v>
+        <v>2943000000</v>
       </c>
       <c r="E28">
-        <v>507000000</v>
+        <v>-2721000000</v>
       </c>
       <c r="F28">
-        <v>-351000000</v>
+        <v>3545000000</v>
+      </c>
+      <c r="G28">
+        <v>5425000000</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1158,10 +1185,22 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>111000000</v>
+        <v>-3631000000</v>
       </c>
       <c r="C29">
-        <v>307000000</v>
+        <v>-2309000000</v>
+      </c>
+      <c r="D29">
+        <v>696000000</v>
+      </c>
+      <c r="E29">
+        <v>-358000000</v>
+      </c>
+      <c r="F29">
+        <v>1687000000</v>
+      </c>
+      <c r="G29">
+        <v>-1887000000</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1169,22 +1208,22 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>-2450000000</v>
+        <v>2212000000</v>
       </c>
       <c r="C30">
-        <v>5927000000</v>
+        <v>4633000000</v>
       </c>
       <c r="D30">
-        <v>-3976000000</v>
+        <v>5109000000</v>
       </c>
       <c r="E30">
-        <v>-1477000000</v>
+        <v>5535000000</v>
       </c>
       <c r="F30">
-        <v>-2765000000</v>
+        <v>5348000000</v>
       </c>
       <c r="G30">
-        <v>-6873000000</v>
+        <v>2734000000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1192,22 +1231,22 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>-2385000000</v>
+        <v>2694000000</v>
       </c>
       <c r="C31">
-        <v>6348000000</v>
+        <v>5551000000</v>
       </c>
       <c r="D31">
-        <v>-3976000000</v>
+        <v>3169000000</v>
       </c>
       <c r="E31">
-        <v>-1477000000</v>
+        <v>2825000000</v>
       </c>
       <c r="F31">
-        <v>-2765000000</v>
+        <v>5616000000</v>
       </c>
       <c r="G31">
-        <v>-6873000000</v>
+        <v>5956000000</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1215,22 +1254,22 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>-1571000000</v>
+        <v>-12223000000</v>
       </c>
       <c r="C32">
-        <v>-1102000000</v>
+        <v>-27577000000</v>
       </c>
       <c r="D32">
-        <v>-1076000000</v>
+        <v>-30311000000</v>
       </c>
       <c r="E32">
-        <v>-988000000</v>
+        <v>-22680000000</v>
       </c>
       <c r="F32">
-        <v>-1259000000</v>
+        <v>-96970000000</v>
       </c>
       <c r="G32">
-        <v>-1326000000</v>
+        <v>-56875000000</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1238,22 +1277,22 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>-1675000000</v>
+        <v>-12223000000</v>
       </c>
       <c r="C33">
-        <v>-1347000000</v>
+        <v>-27577000000</v>
       </c>
       <c r="D33">
-        <v>-2054000000</v>
+        <v>-30311000000</v>
       </c>
       <c r="E33">
-        <v>-1177000000</v>
+        <v>-22680000000</v>
       </c>
       <c r="F33">
-        <v>-1367000000</v>
+        <v>-96970000000</v>
       </c>
       <c r="G33">
-        <v>-1415000000</v>
+        <v>-56875000000</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1261,22 +1300,22 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>104000000</v>
+        <v>-15441000000</v>
       </c>
       <c r="C34">
-        <v>245000000</v>
+        <v>-20622000000</v>
       </c>
       <c r="D34">
-        <v>978000000</v>
+        <v>-23886000000</v>
       </c>
       <c r="E34">
-        <v>189000000</v>
+        <v>-28107000000</v>
       </c>
       <c r="F34">
-        <v>108000000</v>
+        <v>-44477000000</v>
       </c>
       <c r="G34">
-        <v>89000000</v>
+        <v>-61345000000</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1284,22 +1323,22 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>-79000000</v>
+        <v>-15441000000</v>
       </c>
       <c r="C35">
-        <v>322000000</v>
+        <v>-20622000000</v>
       </c>
       <c r="D35">
-        <v>-5113000000</v>
+        <v>-23886000000</v>
       </c>
       <c r="E35">
-        <v>-863000000</v>
+        <v>-28107000000</v>
       </c>
       <c r="F35">
-        <v>-2586000000</v>
+        <v>-44477000000</v>
       </c>
       <c r="G35">
-        <v>-4336000000</v>
+        <v>-61345000000</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1307,22 +1346,22 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>-3900000000</v>
+        <v>-2521000000</v>
       </c>
       <c r="C36">
-        <v>-1040000000</v>
+        <v>-8909000000</v>
       </c>
       <c r="D36">
-        <v>-5542000000</v>
+        <v>-22038000000</v>
       </c>
       <c r="E36">
-        <v>-1052000000</v>
+        <v>-1670000000</v>
       </c>
       <c r="F36">
-        <v>-4766000000</v>
+        <v>-69132000000</v>
       </c>
       <c r="G36">
-        <v>-4795000000</v>
+        <v>-5577000000</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1330,22 +1369,22 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>3821000000</v>
+        <v>-2521000000</v>
       </c>
       <c r="C37">
-        <v>1362000000</v>
+        <v>-8909000000</v>
       </c>
       <c r="D37">
-        <v>429000000</v>
+        <v>-22038000000</v>
       </c>
       <c r="E37">
-        <v>189000000</v>
+        <v>-1670000000</v>
       </c>
       <c r="F37">
-        <v>2180000000</v>
+        <v>-69132000000</v>
       </c>
       <c r="G37">
-        <v>459000000</v>
+        <v>-5577000000</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1353,22 +1392,22 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>-609000000</v>
+        <v>6980000000</v>
       </c>
       <c r="C38">
-        <v>7188000000</v>
+        <v>2876000000</v>
       </c>
       <c r="D38">
-        <v>2269000000</v>
+        <v>18438000000</v>
       </c>
       <c r="E38">
-        <v>252000000</v>
+        <v>10213000000</v>
       </c>
       <c r="F38">
-        <v>1029000000</v>
+        <v>17937000000</v>
       </c>
       <c r="G38">
-        <v>347000000</v>
+        <v>10754000000</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1376,22 +1415,22 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>-16520000000</v>
+        <v>-77190000000</v>
       </c>
       <c r="C39">
-        <v>-7789000000</v>
+        <v>-62924000000</v>
       </c>
       <c r="D39">
-        <v>-4704000000</v>
+        <v>-26456000000</v>
       </c>
       <c r="E39">
-        <v>-13583000000</v>
+        <v>-37651000000</v>
       </c>
       <c r="F39">
-        <v>-6030000000</v>
+        <v>-17732000000</v>
       </c>
       <c r="G39">
-        <v>-4467000000</v>
+        <v>-10975000000</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1399,22 +1438,22 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>15911000000</v>
+        <v>84170000000</v>
       </c>
       <c r="C40">
-        <v>14977000000</v>
+        <v>65800000000</v>
       </c>
       <c r="D40">
-        <v>6973000000</v>
+        <v>44894000000</v>
       </c>
       <c r="E40">
-        <v>13835000000</v>
+        <v>47864000000</v>
       </c>
       <c r="F40">
-        <v>7059000000</v>
+        <v>35669000000</v>
       </c>
       <c r="G40">
-        <v>4814000000</v>
+        <v>21729000000</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1422,22 +1461,22 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>-126000000</v>
+        <v>-1241000000</v>
       </c>
       <c r="C41">
-        <v>-60000000</v>
+        <v>-922000000</v>
       </c>
       <c r="D41">
-        <v>-56000000</v>
+        <v>-2825000000</v>
       </c>
       <c r="E41">
-        <v>122000000</v>
+        <v>-3116000000</v>
       </c>
       <c r="F41">
-        <v>51000000</v>
+        <v>-1298000000</v>
       </c>
       <c r="G41">
-        <v>-109000000</v>
+        <v>-707000000</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1445,10 +1484,22 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>-65000000</v>
+        <v>-46031000000</v>
       </c>
       <c r="C42">
-        <v>-421000000</v>
+        <v>-48486000000</v>
+      </c>
+      <c r="D42">
+        <v>-58876000000</v>
+      </c>
+      <c r="E42">
+        <v>-43935000000</v>
+      </c>
+      <c r="F42">
+        <v>-37757000000</v>
+      </c>
+      <c r="G42">
+        <v>-64418000000</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1456,22 +1507,22 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>-7447000000</v>
+        <v>-46031000000</v>
       </c>
       <c r="C43">
-        <v>-10347000000</v>
+        <v>-48486000000</v>
       </c>
       <c r="D43">
-        <v>-9004000000</v>
+        <v>-58876000000</v>
       </c>
       <c r="E43">
-        <v>-8070000000</v>
+        <v>-43935000000</v>
       </c>
       <c r="F43">
-        <v>-6786000000</v>
+        <v>-37757000000</v>
       </c>
       <c r="G43">
-        <v>-5273000000</v>
+        <v>-64418000000</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1479,22 +1530,22 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>-7409000000</v>
+        <v>-21625000000</v>
       </c>
       <c r="C44">
-        <v>-10552000000</v>
+        <v>-25692000000</v>
       </c>
       <c r="D44">
-        <v>-9004000000</v>
+        <v>-30855000000</v>
       </c>
       <c r="E44">
-        <v>-8070000000</v>
+        <v>-20379000000</v>
       </c>
       <c r="F44">
-        <v>-6786000000</v>
+        <v>-15252000000</v>
       </c>
       <c r="G44">
-        <v>-5273000000</v>
+        <v>-16042000000</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1502,22 +1553,22 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>-2087000000</v>
+        <v>1343000000</v>
       </c>
       <c r="C45">
-        <v>-436000000</v>
+        <v>1693000000</v>
       </c>
       <c r="D45">
-        <v>-91000000</v>
+        <v>1841000000</v>
       </c>
       <c r="E45">
-        <v>529000000</v>
+        <v>1866000000</v>
       </c>
       <c r="F45">
-        <v>591000000</v>
+        <v>2002000000</v>
       </c>
       <c r="G45">
-        <v>-503000000</v>
+        <v>2042000000</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1525,22 +1576,22 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>1595000000</v>
+        <v>-22968000000</v>
       </c>
       <c r="C46">
-        <v>1476000000</v>
+        <v>-27385000000</v>
       </c>
       <c r="D46">
-        <v>1012000000</v>
+        <v>-32696000000</v>
       </c>
       <c r="E46">
-        <v>647000000</v>
+        <v>-22245000000</v>
       </c>
       <c r="F46">
-        <v>702000000</v>
+        <v>-17254000000</v>
       </c>
       <c r="G46">
-        <v>916000000</v>
+        <v>-18084000000</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1548,22 +1599,22 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>-3682000000</v>
+        <v>-5518000000</v>
       </c>
       <c r="C47">
-        <v>-1912000000</v>
+        <v>-3750000000</v>
       </c>
       <c r="D47">
-        <v>-1103000000</v>
+        <v>-9023000000</v>
       </c>
       <c r="E47">
-        <v>-118000000</v>
+        <v>-2750000000</v>
       </c>
       <c r="F47">
-        <v>-111000000</v>
+        <v>575000000</v>
       </c>
       <c r="G47">
-        <v>-1419000000</v>
+        <v>-22972000000</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1571,45 +1622,21 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>1089000000</v>
-      </c>
-      <c r="C48">
-        <v>-3229000000</v>
-      </c>
-      <c r="D48">
-        <v>-1841000000</v>
-      </c>
-      <c r="E48">
-        <v>-1862000000</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>228000000</v>
+        <v>5250000000</v>
       </c>
       <c r="G48">
-        <v>2007000000</v>
+        <v>-6888000000</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>54</v>
       </c>
-      <c r="B49">
-        <v>1089000000</v>
-      </c>
-      <c r="C49">
-        <v>-3229000000</v>
-      </c>
-      <c r="D49">
-        <v>-1841000000</v>
-      </c>
-      <c r="E49">
-        <v>-1862000000</v>
-      </c>
       <c r="F49">
-        <v>228000000</v>
-      </c>
-      <c r="G49">
-        <v>2007000000</v>
+        <v>5250000000</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1617,22 +1644,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>29857000000</v>
-      </c>
-      <c r="C50">
-        <v>27339000000</v>
-      </c>
-      <c r="D50">
-        <v>23009000000</v>
-      </c>
-      <c r="E50">
-        <v>26934000000</v>
-      </c>
-      <c r="F50">
-        <v>13094000000</v>
-      </c>
-      <c r="G50">
-        <v>5597000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1640,22 +1652,22 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>-28768000000</v>
+        <v>-5518000000</v>
       </c>
       <c r="C51">
-        <v>-30568000000</v>
+        <v>-3750000000</v>
       </c>
       <c r="D51">
-        <v>-24850000000</v>
+        <v>-9023000000</v>
       </c>
       <c r="E51">
-        <v>-28796000000</v>
+        <v>-2750000000</v>
       </c>
       <c r="F51">
-        <v>-12866000000</v>
+        <v>-4675000000</v>
       </c>
       <c r="G51">
-        <v>-3590000000</v>
+        <v>-16084000000</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1663,22 +1675,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>-6320000000</v>
-      </c>
-      <c r="C52">
-        <v>-6644000000</v>
-      </c>
-      <c r="D52">
-        <v>-6845000000</v>
-      </c>
-      <c r="E52">
-        <v>-7047000000</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>-7252000000</v>
+        <v>24395000000</v>
       </c>
       <c r="G52">
-        <v>-5725000000</v>
+        <v>197000000</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1686,22 +1689,22 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>-6320000000</v>
+        <v>-5518000000</v>
       </c>
       <c r="C53">
-        <v>-6644000000</v>
+        <v>-3750000000</v>
       </c>
       <c r="D53">
-        <v>-6845000000</v>
+        <v>-9023000000</v>
       </c>
       <c r="E53">
-        <v>-7047000000</v>
+        <v>-2750000000</v>
       </c>
       <c r="F53">
-        <v>-7252000000</v>
+        <v>-29070000000</v>
       </c>
       <c r="G53">
-        <v>-5725000000</v>
+        <v>-16281000000</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1709,22 +1712,22 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>-91000000</v>
+        <v>-15137000000</v>
       </c>
       <c r="C54">
-        <v>-243000000</v>
+        <v>-16521000000</v>
       </c>
       <c r="D54">
-        <v>-227000000</v>
+        <v>-18135000000</v>
       </c>
       <c r="E54">
-        <v>310000000</v>
+        <v>-19800000000</v>
       </c>
       <c r="F54">
-        <v>-353000000</v>
+        <v>-21771000000</v>
       </c>
       <c r="G54">
-        <v>-1052000000</v>
+        <v>-23487000000</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1732,10 +1735,22 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>-38000000</v>
+        <v>-15137000000</v>
       </c>
       <c r="C55">
-        <v>205000000</v>
+        <v>-16521000000</v>
+      </c>
+      <c r="D55">
+        <v>-18135000000</v>
+      </c>
+      <c r="E55">
+        <v>-19800000000</v>
+      </c>
+      <c r="F55">
+        <v>-21771000000</v>
+      </c>
+      <c r="G55">
+        <v>-23487000000</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1743,22 +1758,22 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>6006000000</v>
+        <v>-15137000000</v>
       </c>
       <c r="C56">
-        <v>9318000000</v>
+        <v>-16521000000</v>
       </c>
       <c r="D56">
-        <v>6737000000</v>
+        <v>-18135000000</v>
       </c>
       <c r="E56">
-        <v>7110000000</v>
+        <v>-19800000000</v>
       </c>
       <c r="F56">
-        <v>10025000000</v>
+        <v>-21771000000</v>
       </c>
       <c r="G56">
-        <v>10434000000</v>
+        <v>-23487000000</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1766,101 +1781,152 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>-2791000000</v>
+        <v>-3751000000</v>
       </c>
       <c r="C57">
-        <v>3207000000</v>
+        <v>-2523000000</v>
       </c>
       <c r="D57">
-        <v>-2509000000</v>
+        <v>-863000000</v>
       </c>
       <c r="E57">
-        <v>297000000</v>
+        <v>-1006000000</v>
       </c>
       <c r="F57">
-        <v>3074000000</v>
+        <v>-1309000000</v>
       </c>
       <c r="G57">
-        <v>-684000000</v>
+        <v>-1917000000</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>63</v>
       </c>
-      <c r="B58">
-        <v>242000000</v>
-      </c>
-      <c r="C58">
-        <v>-262000000</v>
-      </c>
-      <c r="D58">
-        <v>-72000000</v>
-      </c>
-      <c r="E58">
-        <v>76000000</v>
-      </c>
-      <c r="F58">
-        <v>-159000000</v>
-      </c>
-      <c r="G58">
-        <v>-495000000</v>
-      </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>64</v>
       </c>
       <c r="B59">
-        <v>8555000000</v>
+        <v>13576000000</v>
       </c>
       <c r="C59">
-        <v>6373000000</v>
+        <v>14224000000</v>
       </c>
       <c r="D59">
-        <v>9318000000</v>
+        <v>13931000000</v>
       </c>
       <c r="E59">
-        <v>6737000000</v>
+        <v>34704000000</v>
       </c>
       <c r="F59">
-        <v>7110000000</v>
+        <v>18315000000</v>
       </c>
       <c r="G59">
-        <v>11613000000</v>
+        <v>28828000000</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>65</v>
       </c>
+      <c r="B60">
+        <v>2421000000</v>
+      </c>
+      <c r="C60">
+        <v>677000000</v>
+      </c>
+      <c r="D60">
+        <v>-152000000</v>
+      </c>
+      <c r="E60">
+        <v>20967000000</v>
+      </c>
+      <c r="F60">
+        <v>-16179000000</v>
+      </c>
+      <c r="G60">
+        <v>9417000000</v>
+      </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>66</v>
       </c>
       <c r="B61">
-        <v>-2549000000</v>
+        <v>-201000000</v>
       </c>
       <c r="C61">
-        <v>2945000000</v>
+        <v>-29000000</v>
       </c>
       <c r="D61">
-        <v>-2581000000</v>
+        <v>-141000000</v>
       </c>
       <c r="E61">
-        <v>373000000</v>
+        <v>-194000000</v>
       </c>
       <c r="F61">
-        <v>2915000000</v>
+        <v>-210000000</v>
       </c>
       <c r="G61">
-        <v>-1179000000</v>
+        <v>-223000000</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>67</v>
+      </c>
+      <c r="B62">
+        <v>11356000000</v>
+      </c>
+      <c r="C62">
+        <v>13576000000</v>
+      </c>
+      <c r="D62">
+        <v>14224000000</v>
+      </c>
+      <c r="E62">
+        <v>13931000000</v>
+      </c>
+      <c r="F62">
+        <v>34704000000</v>
+      </c>
+      <c r="G62">
+        <v>19634000000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64">
+        <v>2220000000</v>
+      </c>
+      <c r="C64">
+        <v>648000000</v>
+      </c>
+      <c r="D64">
+        <v>-293000000</v>
+      </c>
+      <c r="E64">
+        <v>20773000000</v>
+      </c>
+      <c r="F64">
+        <v>-16389000000</v>
+      </c>
+      <c r="G64">
+        <v>9194000000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/cash_flow.xlsx
+++ b/cash_flow.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
-  <si>
-    <t>MSFT_cash-flow_Annual_As_Originally_Reported</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+  <si>
+    <t>TSLA_cash-flow_Annual_As_Originally_Reported</t>
   </si>
   <si>
     <t>2020</t>
@@ -67,13 +67,13 @@
     <t>Deferred Taxes, Non-Cash Adjustment</t>
   </si>
   <si>
+    <t>Interest and Finance Income/Expenses, Non-Cash Adjustment</t>
+  </si>
+  <si>
     <t>Net Investment Income/Loss, Non-Cash Adjustment</t>
   </si>
   <si>
-    <t>Realized Gain/Loss on Disposal/Sale of Financial Instruments, Non-Cash Adjustment</t>
-  </si>
-  <si>
-    <t>Unrealized Gain/Loss on Financial Assets/Liabilities, Non-Cash Adjustment</t>
+    <t>Net Foreign Currency Exchange Gain/Loss, Non-Cash Adjustment</t>
   </si>
   <si>
     <t>Gain/Loss on Derivatives, Non-Cash Adjustment</t>
@@ -82,18 +82,21 @@
     <t>Irregular Income/Loss, Non-Cash Adjustment</t>
   </si>
   <si>
+    <t>Gain/Loss on Disposals, Non-Cash Adjustment</t>
+  </si>
+  <si>
+    <t>Gain/Loss on Disposal/Sale of Fixed Assets, Non-Cash Adjustment</t>
+  </si>
+  <si>
     <t>Write Down and Write off of Other Assets, Non-Cash Adjustment</t>
   </si>
   <si>
-    <t>Impairment of Goodwill, Non-Cash Adjustment</t>
+    <t>Reorganization and M&amp;A, Non-Cash Adjustment</t>
   </si>
   <si>
     <t>Other Non-Cash Items</t>
   </si>
   <si>
-    <t>Excess Tax Benefit from Stock-Based Compensation, Non-Cash Adjustment</t>
-  </si>
-  <si>
     <t>Changes in Operating Capital</t>
   </si>
   <si>
@@ -106,6 +109,9 @@
     <t>Change in Trade/Accounts Receivable</t>
   </si>
   <si>
+    <t>Change in Prepayments and Deposits</t>
+  </si>
+  <si>
     <t>Change in Other Current Assets</t>
   </si>
   <si>
@@ -118,15 +124,18 @@
     <t>Change in Trade/Accounts Payable</t>
   </si>
   <si>
-    <t>Change in Taxes Payable</t>
-  </si>
-  <si>
     <t>Change in Deferred Assets/Liabilities</t>
   </si>
   <si>
     <t>Change in Other Current Liabilities</t>
   </si>
   <si>
+    <t>Change in Other Operating Capital</t>
+  </si>
+  <si>
+    <t>Other Operating Cash Flow</t>
+  </si>
+  <si>
     <t>Cash Flow from Investing Activities</t>
   </si>
   <si>
@@ -139,6 +148,15 @@
     <t>Purchase of Property, Plant and Equipment</t>
   </si>
   <si>
+    <t>Purchase/Sale of Intangibles, Net</t>
+  </si>
+  <si>
+    <t>Purchase of Intangibles</t>
+  </si>
+  <si>
+    <t>Sale of Intangibles</t>
+  </si>
+  <si>
     <t>Purchase/Sale of Business, Net</t>
   </si>
   <si>
@@ -157,57 +175,60 @@
     <t>Other Investing Cash Flow</t>
   </si>
   <si>
+    <t>Increase/Decrease in Restricted Cash and Cash Equivalents</t>
+  </si>
+  <si>
     <t>Cash Flow from Financing Activities</t>
   </si>
   <si>
     <t>Cash Flow from Continuing Financing Activities</t>
   </si>
   <si>
+    <t>Issuance of/Repayments for Debt, Net</t>
+  </si>
+  <si>
+    <t>Issuance of/Repayments for Long Term Debt, Net</t>
+  </si>
+  <si>
+    <t>Proceeds from Issuance of Long Term Debt</t>
+  </si>
+  <si>
+    <t>Repayments for Long Term Debt</t>
+  </si>
+  <si>
+    <t>Issuance of/Repayments for Lease Financing</t>
+  </si>
+  <si>
+    <t>Repayments for Lease Financing</t>
+  </si>
+  <si>
+    <t>Proceeds from Lease Financing</t>
+  </si>
+  <si>
+    <t>Net Movement in Non-Controlling/Minority Interest</t>
+  </si>
+  <si>
+    <t>Issue and Financing Costs</t>
+  </si>
+  <si>
+    <t>Debt Issuance Costs</t>
+  </si>
+  <si>
+    <t>Cash Dividends Paid to Non-Controlling/Minority Interests</t>
+  </si>
+  <si>
+    <t>Proceeds from Issuance/Exercising of Stock Options/Warrants</t>
+  </si>
+  <si>
     <t>Issuance of/Payments for Common Stock, Net</t>
   </si>
   <si>
     <t>Proceeds from Issuance of Common Stock</t>
   </si>
   <si>
-    <t>Payments for Common Stock</t>
-  </si>
-  <si>
-    <t>Issuance of/Repayments for Debt, Net</t>
-  </si>
-  <si>
-    <t>Issuance of/Repayments for Short Term Debt, Net</t>
-  </si>
-  <si>
-    <t>Proceeds from Issuance of Short Term Debt</t>
-  </si>
-  <si>
-    <t>Repayments for Short Term Debt</t>
-  </si>
-  <si>
-    <t>Issuance of/Repayments for Long Term Debt, Net</t>
-  </si>
-  <si>
-    <t>Proceeds from Issuance of Long Term Debt</t>
-  </si>
-  <si>
-    <t>Repayments for Long Term Debt</t>
-  </si>
-  <si>
-    <t>Cash Dividends and Interest Paid</t>
-  </si>
-  <si>
-    <t>Cash Dividends Paid</t>
-  </si>
-  <si>
-    <t>Common Stock Dividends Paid</t>
-  </si>
-  <si>
     <t>Other Financing Cash Flow</t>
   </si>
   <si>
-    <t>Excess Tax Benefit from Share-Based Compensation, Financing Activities</t>
-  </si>
-  <si>
     <t>Cash and Cash Equivalents, End of Period</t>
   </si>
   <si>
@@ -226,7 +247,13 @@
     <t>Change in Cash as Reported, Supplemental</t>
   </si>
   <si>
-    <t>Fiscal year ends in Jun 30 | USD</t>
+    <t>Income Tax Paid, Supplemental</t>
+  </si>
+  <si>
+    <t>Interest Paid, Supplemental</t>
+  </si>
+  <si>
+    <t>Fiscal year ends in Dec 31 | USD</t>
   </si>
 </sst>
 </file>
@@ -584,7 +611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -618,22 +645,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>60675000000</v>
+        <v>5943000000</v>
       </c>
       <c r="C2">
-        <v>76740000000</v>
+        <v>11497000000</v>
       </c>
       <c r="D2">
-        <v>89035000000</v>
+        <v>14724000000</v>
       </c>
       <c r="E2">
-        <v>87582000000</v>
+        <v>13256000000</v>
       </c>
       <c r="F2">
-        <v>118548000000</v>
+        <v>14923000000</v>
       </c>
       <c r="G2">
-        <v>130710000000</v>
+        <v>16837000000</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -641,22 +668,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>60675000000</v>
+        <v>5943000000</v>
       </c>
       <c r="C3">
-        <v>76740000000</v>
+        <v>11497000000</v>
       </c>
       <c r="D3">
-        <v>89035000000</v>
+        <v>14724000000</v>
       </c>
       <c r="E3">
-        <v>87582000000</v>
+        <v>13256000000</v>
       </c>
       <c r="F3">
-        <v>118548000000</v>
+        <v>14923000000</v>
       </c>
       <c r="G3">
-        <v>130710000000</v>
+        <v>16837000000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -664,22 +691,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>60675000000</v>
+        <v>5943000000</v>
       </c>
       <c r="C4">
-        <v>76740000000</v>
+        <v>11497000000</v>
       </c>
       <c r="D4">
-        <v>89035000000</v>
+        <v>14724000000</v>
       </c>
       <c r="E4">
-        <v>87582000000</v>
+        <v>13256000000</v>
       </c>
       <c r="F4">
-        <v>118548000000</v>
+        <v>14923000000</v>
       </c>
       <c r="G4">
-        <v>130710000000</v>
+        <v>16837000000</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -687,22 +714,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>44281000000</v>
+        <v>862000000</v>
       </c>
       <c r="C5">
-        <v>61271000000</v>
+        <v>5644000000</v>
       </c>
       <c r="D5">
-        <v>72738000000</v>
+        <v>12587000000</v>
       </c>
       <c r="E5">
-        <v>72361000000</v>
+        <v>14974000000</v>
       </c>
       <c r="F5">
-        <v>88136000000</v>
+        <v>7153000000</v>
       </c>
       <c r="G5">
-        <v>96635000000</v>
+        <v>6429000000</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -710,22 +737,22 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>17877000000</v>
+        <v>4897000000</v>
       </c>
       <c r="C6">
-        <v>16405000000</v>
+        <v>5335000000</v>
       </c>
       <c r="D6">
-        <v>15851000000</v>
+        <v>6045000000</v>
       </c>
       <c r="E6">
-        <v>17609000000</v>
+        <v>530000000</v>
       </c>
       <c r="F6">
-        <v>28588000000</v>
+        <v>7689000000</v>
       </c>
       <c r="G6">
-        <v>35544000000</v>
+        <v>8220000000</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -733,22 +760,22 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>12796000000</v>
+        <v>2322000000</v>
       </c>
       <c r="C7">
-        <v>11686000000</v>
+        <v>2911000000</v>
       </c>
       <c r="D7">
-        <v>14460000000</v>
+        <v>3747000000</v>
       </c>
       <c r="E7">
-        <v>13861000000</v>
+        <v>4667000000</v>
       </c>
       <c r="F7">
-        <v>22287000000</v>
+        <v>5368000000</v>
       </c>
       <c r="G7">
-        <v>29330000000</v>
+        <v>5569000000</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -756,45 +783,42 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>12796000000</v>
+        <v>2322000000</v>
       </c>
       <c r="C8">
-        <v>11686000000</v>
+        <v>2911000000</v>
       </c>
       <c r="D8">
-        <v>14460000000</v>
+        <v>3747000000</v>
       </c>
       <c r="E8">
-        <v>13861000000</v>
+        <v>4667000000</v>
       </c>
       <c r="F8">
-        <v>22287000000</v>
+        <v>5368000000</v>
       </c>
       <c r="G8">
-        <v>29330000000</v>
+        <v>5569000000</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9">
-        <v>12796000000</v>
-      </c>
       <c r="C9">
-        <v>11686000000</v>
+        <v>2911000000</v>
       </c>
       <c r="D9">
-        <v>14460000000</v>
+        <v>3747000000</v>
       </c>
       <c r="E9">
-        <v>13861000000</v>
+        <v>4667000000</v>
       </c>
       <c r="F9">
-        <v>22287000000</v>
+        <v>5368000000</v>
       </c>
       <c r="G9">
-        <v>29330000000</v>
+        <v>5569000000</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -802,45 +826,36 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>5289000000</v>
+        <v>1734000000</v>
       </c>
       <c r="C10">
-        <v>6118000000</v>
+        <v>2121000000</v>
       </c>
       <c r="D10">
-        <v>7502000000</v>
+        <v>1560000000</v>
       </c>
       <c r="E10">
-        <v>9611000000</v>
+        <v>1812000000</v>
       </c>
       <c r="F10">
-        <v>10734000000</v>
+        <v>1999000000</v>
       </c>
       <c r="G10">
-        <v>11597000000</v>
+        <v>2048000000</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11">
-        <v>11000000</v>
-      </c>
-      <c r="C11">
-        <v>-150000000</v>
-      </c>
-      <c r="D11">
-        <v>-5702000000</v>
-      </c>
       <c r="E11">
-        <v>-6059000000</v>
+        <v>-6349000000</v>
       </c>
       <c r="F11">
-        <v>-4738000000</v>
+        <v>477000000</v>
       </c>
       <c r="G11">
-        <v>-5980000000</v>
+        <v>445000000</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -848,22 +863,22 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>-352000000</v>
+        <v>408000000</v>
       </c>
       <c r="C12">
-        <v>-1262000000</v>
+        <v>245000000</v>
       </c>
       <c r="D12">
-        <v>-510000000</v>
+        <v>340000000</v>
       </c>
       <c r="E12">
-        <v>166000000</v>
+        <v>81000000</v>
       </c>
       <c r="F12">
-        <v>99000000</v>
+        <v>172000000</v>
       </c>
       <c r="G12">
-        <v>-323000000</v>
+        <v>223000000</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -871,22 +886,22 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>-96000000</v>
+        <v>114000000</v>
       </c>
       <c r="C13">
-        <v>-188000000</v>
+        <v>-55000000</v>
       </c>
       <c r="D13">
-        <v>-53000000</v>
+        <v>81000000</v>
       </c>
       <c r="E13">
-        <v>13000000</v>
+        <v>-144000000</v>
       </c>
       <c r="F13">
-        <v>58000000</v>
+        <v>-73000000</v>
       </c>
       <c r="G13">
-        <v>-17000000</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -894,68 +909,50 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>-69000000</v>
+        <v>114000000</v>
       </c>
       <c r="C14">
-        <v>-1057000000</v>
+        <v>-55000000</v>
       </c>
       <c r="D14">
-        <v>-509000000</v>
+        <v>81000000</v>
       </c>
       <c r="E14">
-        <v>-303000000</v>
+        <v>-144000000</v>
       </c>
       <c r="F14">
-        <v>-146000000</v>
+        <v>-73000000</v>
       </c>
       <c r="G14">
-        <v>-562000000</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15">
-        <v>-187000000</v>
-      </c>
-      <c r="C15">
-        <v>-17000000</v>
-      </c>
-      <c r="D15">
-        <v>52000000</v>
-      </c>
-      <c r="E15">
-        <v>456000000</v>
-      </c>
-      <c r="F15">
-        <v>187000000</v>
-      </c>
-      <c r="G15">
-        <v>256000000</v>
-      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>21</v>
       </c>
       <c r="B16">
-        <v>133000000</v>
+        <v>319000000</v>
       </c>
       <c r="C16">
-        <v>13000000</v>
+        <v>113000000</v>
       </c>
       <c r="D16">
-        <v>101000000</v>
+        <v>317000000</v>
       </c>
       <c r="E16">
-        <v>30000000</v>
+        <v>463000000</v>
       </c>
       <c r="F16">
-        <v>206000000</v>
+        <v>-254000000</v>
       </c>
       <c r="G16">
-        <v>920000000</v>
+        <v>-85000000</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -963,33 +960,63 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>133000000</v>
+        <v>117000000</v>
       </c>
       <c r="C17">
-        <v>13000000</v>
+        <v>-27000000</v>
       </c>
       <c r="D17">
-        <v>101000000</v>
+        <v>140000000</v>
       </c>
       <c r="E17">
-        <v>30000000</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>206000000</v>
-      </c>
-      <c r="G17">
-        <v>920000000</v>
+        <v>-589000000</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>23</v>
       </c>
+      <c r="B18">
+        <v>117000000</v>
+      </c>
+      <c r="C18">
+        <v>-27000000</v>
+      </c>
+      <c r="D18">
+        <v>140000000</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>-589000000</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>24</v>
       </c>
+      <c r="B19">
+        <v>202000000</v>
+      </c>
+      <c r="C19">
+        <v>140000000</v>
+      </c>
+      <c r="D19">
+        <v>177000000</v>
+      </c>
+      <c r="E19">
+        <v>463000000</v>
+      </c>
+      <c r="F19">
+        <v>335000000</v>
+      </c>
+      <c r="G19">
+        <v>379000000</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
@@ -1000,46 +1027,28 @@
       <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="B21">
-        <v>-1483000000</v>
-      </c>
-      <c r="C21">
-        <v>-936000000</v>
-      </c>
-      <c r="D21">
-        <v>446000000</v>
-      </c>
-      <c r="E21">
-        <v>-2388000000</v>
-      </c>
-      <c r="F21">
-        <v>1824000000</v>
-      </c>
-      <c r="G21">
-        <v>-1469000000</v>
-      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>27</v>
       </c>
       <c r="B22">
-        <v>168000000</v>
+        <v>184000000</v>
       </c>
       <c r="C22">
-        <v>-737000000</v>
+        <v>518000000</v>
       </c>
       <c r="D22">
-        <v>-1123000000</v>
+        <v>-3908000000</v>
       </c>
       <c r="E22">
-        <v>1242000000</v>
+        <v>-2248000000</v>
       </c>
       <c r="F22">
-        <v>1284000000</v>
+        <v>81000000</v>
       </c>
       <c r="G22">
-        <v>445000000</v>
+        <v>2188000000</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1047,22 +1056,22 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>-2577000000</v>
+        <v>-422000000</v>
       </c>
       <c r="C23">
-        <v>-6481000000</v>
+        <v>-1709000000</v>
       </c>
       <c r="D23">
-        <v>-6834000000</v>
+        <v>-6465000000</v>
       </c>
       <c r="E23">
-        <v>-4087000000</v>
+        <v>-1195000000</v>
       </c>
       <c r="F23">
-        <v>-7191000000</v>
+        <v>937000000</v>
       </c>
       <c r="G23">
-        <v>-7648000000</v>
+        <v>1930000000</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1070,22 +1079,22 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>-2577000000</v>
+        <v>-652000000</v>
       </c>
       <c r="C24">
-        <v>-6481000000</v>
+        <v>-130000000</v>
       </c>
       <c r="D24">
-        <v>-6834000000</v>
+        <v>-1124000000</v>
       </c>
       <c r="E24">
-        <v>-4087000000</v>
+        <v>-586000000</v>
       </c>
       <c r="F24">
-        <v>-7191000000</v>
+        <v>-1083000000</v>
       </c>
       <c r="G24">
-        <v>-7648000000</v>
+        <v>-31000000</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1093,22 +1102,22 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>-3367000000</v>
+        <v>-652000000</v>
       </c>
       <c r="C25">
-        <v>-4391000000</v>
+        <v>-130000000</v>
       </c>
       <c r="D25">
-        <v>-3514000000</v>
+        <v>-1124000000</v>
       </c>
       <c r="E25">
-        <v>-4824000000</v>
+        <v>-586000000</v>
       </c>
       <c r="F25">
-        <v>-8465000000</v>
+        <v>-1083000000</v>
       </c>
       <c r="G25">
-        <v>-6494000000</v>
+        <v>-31000000</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1116,22 +1125,22 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>-613000000</v>
+        <v>-251000000</v>
       </c>
       <c r="C26">
-        <v>489000000</v>
+        <v>-271000000</v>
       </c>
       <c r="D26">
-        <v>3639000000</v>
+        <v>-1417000000</v>
       </c>
       <c r="E26">
-        <v>-3079000000</v>
+        <v>-2652000000</v>
       </c>
       <c r="F26">
-        <v>5232000000</v>
+        <v>-3273000000</v>
       </c>
       <c r="G26">
-        <v>3538000000</v>
+        <v>-2720000000</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1139,22 +1148,22 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>-613000000</v>
+        <v>-1416000000</v>
       </c>
       <c r="C27">
-        <v>489000000</v>
+        <v>-3405000000</v>
       </c>
       <c r="D27">
-        <v>3639000000</v>
+        <v>-4121000000</v>
       </c>
       <c r="E27">
-        <v>-3079000000</v>
+        <v>-1952000000</v>
       </c>
       <c r="F27">
-        <v>5232000000</v>
+        <v>-590000000</v>
       </c>
       <c r="G27">
-        <v>3538000000</v>
+        <v>-654000000</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1162,68 +1171,44 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>3018000000</v>
+        <v>2102000000</v>
       </c>
       <c r="C28">
-        <v>2798000000</v>
+        <v>4578000000</v>
       </c>
       <c r="D28">
-        <v>2943000000</v>
+        <v>6029000000</v>
       </c>
       <c r="E28">
-        <v>-2721000000</v>
+        <v>2605000000</v>
       </c>
       <c r="F28">
-        <v>3545000000</v>
+        <v>3588000000</v>
       </c>
       <c r="G28">
-        <v>5425000000</v>
+        <v>3047000000</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>34</v>
       </c>
-      <c r="B29">
-        <v>-3631000000</v>
-      </c>
-      <c r="C29">
-        <v>-2309000000</v>
-      </c>
-      <c r="D29">
-        <v>696000000</v>
-      </c>
       <c r="E29">
-        <v>-358000000</v>
+        <v>2605000000</v>
       </c>
       <c r="F29">
-        <v>1687000000</v>
-      </c>
-      <c r="G29">
-        <v>-1887000000</v>
+        <v>3588000000</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>35</v>
       </c>
-      <c r="B30">
-        <v>2212000000</v>
-      </c>
-      <c r="C30">
-        <v>4633000000</v>
-      </c>
-      <c r="D30">
-        <v>5109000000</v>
-      </c>
       <c r="E30">
-        <v>5535000000</v>
+        <v>2605000000</v>
       </c>
       <c r="F30">
-        <v>5348000000</v>
-      </c>
-      <c r="G30">
-        <v>2734000000</v>
+        <v>3588000000</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1231,22 +1216,22 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>2694000000</v>
+        <v>328000000</v>
       </c>
       <c r="C31">
-        <v>5551000000</v>
+        <v>979000000</v>
       </c>
       <c r="D31">
-        <v>3169000000</v>
+        <v>1286000000</v>
       </c>
       <c r="E31">
-        <v>2825000000</v>
+        <v>1532000000</v>
       </c>
       <c r="F31">
-        <v>5616000000</v>
+        <v>502000000</v>
       </c>
       <c r="G31">
-        <v>5956000000</v>
+        <v>616000000</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1254,68 +1239,29 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>-12223000000</v>
+        <v>495000000</v>
       </c>
       <c r="C32">
-        <v>-27577000000</v>
+        <v>476000000</v>
       </c>
       <c r="D32">
-        <v>-30311000000</v>
-      </c>
-      <c r="E32">
-        <v>-22680000000</v>
-      </c>
-      <c r="F32">
-        <v>-96970000000</v>
-      </c>
-      <c r="G32">
-        <v>-56875000000</v>
+        <v>1904000000</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>38</v>
       </c>
-      <c r="B33">
-        <v>-12223000000</v>
-      </c>
-      <c r="C33">
-        <v>-27577000000</v>
-      </c>
-      <c r="D33">
-        <v>-30311000000</v>
-      </c>
-      <c r="E33">
-        <v>-22680000000</v>
-      </c>
-      <c r="F33">
-        <v>-96970000000</v>
-      </c>
-      <c r="G33">
-        <v>-56875000000</v>
-      </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>39</v>
       </c>
       <c r="B34">
-        <v>-15441000000</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>-20622000000</v>
-      </c>
-      <c r="D34">
-        <v>-23886000000</v>
-      </c>
-      <c r="E34">
-        <v>-28107000000</v>
-      </c>
-      <c r="F34">
-        <v>-44477000000</v>
-      </c>
-      <c r="G34">
-        <v>-61345000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1323,22 +1269,22 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>-15441000000</v>
+        <v>-3132000000</v>
       </c>
       <c r="C35">
-        <v>-20622000000</v>
+        <v>-7868000000</v>
       </c>
       <c r="D35">
-        <v>-23886000000</v>
+        <v>-11973000000</v>
       </c>
       <c r="E35">
-        <v>-28107000000</v>
+        <v>-15584000000</v>
       </c>
       <c r="F35">
-        <v>-44477000000</v>
+        <v>-18787000000</v>
       </c>
       <c r="G35">
-        <v>-61345000000</v>
+        <v>-15354000000</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1346,22 +1292,22 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>-2521000000</v>
+        <v>-3132000000</v>
       </c>
       <c r="C36">
-        <v>-8909000000</v>
+        <v>-7868000000</v>
       </c>
       <c r="D36">
-        <v>-22038000000</v>
+        <v>-11973000000</v>
       </c>
       <c r="E36">
-        <v>-1670000000</v>
+        <v>-15584000000</v>
       </c>
       <c r="F36">
-        <v>-69132000000</v>
+        <v>-18787000000</v>
       </c>
       <c r="G36">
-        <v>-5577000000</v>
+        <v>-15354000000</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1369,22 +1315,22 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>-2521000000</v>
+        <v>-3232000000</v>
       </c>
       <c r="C37">
-        <v>-8909000000</v>
+        <v>-6514000000</v>
       </c>
       <c r="D37">
-        <v>-22038000000</v>
+        <v>-7163000000</v>
       </c>
       <c r="E37">
-        <v>-1670000000</v>
+        <v>-8899000000</v>
       </c>
       <c r="F37">
-        <v>-69132000000</v>
+        <v>-11342000000</v>
       </c>
       <c r="G37">
-        <v>-5577000000</v>
+        <v>-10057000000</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1392,22 +1338,22 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>6980000000</v>
+        <v>-3232000000</v>
       </c>
       <c r="C38">
-        <v>2876000000</v>
+        <v>-6514000000</v>
       </c>
       <c r="D38">
-        <v>18438000000</v>
+        <v>-7163000000</v>
       </c>
       <c r="E38">
-        <v>10213000000</v>
+        <v>-8899000000</v>
       </c>
       <c r="F38">
-        <v>17937000000</v>
+        <v>-11342000000</v>
       </c>
       <c r="G38">
-        <v>10754000000</v>
+        <v>-10057000000</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1415,22 +1361,19 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>-77190000000</v>
+        <v>-10000000</v>
       </c>
       <c r="C39">
-        <v>-62924000000</v>
+        <v>-1228000000</v>
       </c>
       <c r="D39">
-        <v>-26456000000</v>
+        <v>927000000</v>
       </c>
       <c r="E39">
-        <v>-37651000000</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>-17732000000</v>
-      </c>
-      <c r="G39">
-        <v>-10975000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1438,45 +1381,36 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>84170000000</v>
+        <v>-10000000</v>
       </c>
       <c r="C40">
-        <v>65800000000</v>
+        <v>-1500000000</v>
       </c>
       <c r="D40">
-        <v>44894000000</v>
+        <v>-9000000</v>
       </c>
       <c r="E40">
-        <v>47864000000</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>35669000000</v>
-      </c>
-      <c r="G40">
-        <v>21729000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>46</v>
       </c>
-      <c r="B41">
-        <v>-1241000000</v>
-      </c>
       <c r="C41">
-        <v>-922000000</v>
+        <v>272000000</v>
       </c>
       <c r="D41">
-        <v>-2825000000</v>
+        <v>936000000</v>
       </c>
       <c r="E41">
-        <v>-3116000000</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>-1298000000</v>
-      </c>
-      <c r="G41">
-        <v>-707000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1484,22 +1418,19 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>-46031000000</v>
+        <v>-13000000</v>
       </c>
       <c r="C42">
-        <v>-48486000000</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>-58876000000</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>-43935000000</v>
+        <v>-64000000</v>
       </c>
       <c r="F42">
-        <v>-37757000000</v>
-      </c>
-      <c r="G42">
-        <v>-64418000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1507,91 +1438,76 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>-46031000000</v>
+        <v>-13000000</v>
       </c>
       <c r="C43">
-        <v>-48486000000</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>-58876000000</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>-43935000000</v>
+        <v>-64000000</v>
       </c>
       <c r="F43">
-        <v>-37757000000</v>
-      </c>
-      <c r="G43">
-        <v>-64418000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>49</v>
       </c>
-      <c r="B44">
-        <v>-21625000000</v>
-      </c>
       <c r="C44">
-        <v>-25692000000</v>
+        <v>-132000000</v>
       </c>
       <c r="D44">
-        <v>-30855000000</v>
+        <v>-5813000000</v>
       </c>
       <c r="E44">
-        <v>-20379000000</v>
+        <v>-6621000000</v>
       </c>
       <c r="F44">
-        <v>-15252000000</v>
+        <v>-7445000000</v>
       </c>
       <c r="G44">
-        <v>-16042000000</v>
+        <v>-5297000000</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>50</v>
       </c>
-      <c r="B45">
-        <v>1343000000</v>
-      </c>
       <c r="C45">
-        <v>1693000000</v>
+        <v>-132000000</v>
       </c>
       <c r="D45">
-        <v>1841000000</v>
+        <v>-5835000000</v>
       </c>
       <c r="E45">
-        <v>1866000000</v>
+        <v>-19112000000</v>
       </c>
       <c r="F45">
-        <v>2002000000</v>
+        <v>-35955000000</v>
       </c>
       <c r="G45">
-        <v>2042000000</v>
+        <v>-35348000000</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>51</v>
       </c>
-      <c r="B46">
-        <v>-22968000000</v>
-      </c>
-      <c r="C46">
-        <v>-27385000000</v>
-      </c>
       <c r="D46">
-        <v>-32696000000</v>
+        <v>22000000</v>
       </c>
       <c r="E46">
-        <v>-22245000000</v>
+        <v>12491000000</v>
       </c>
       <c r="F46">
-        <v>-17254000000</v>
+        <v>28510000000</v>
       </c>
       <c r="G46">
-        <v>-18084000000</v>
+        <v>30051000000</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1599,44 +1515,47 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>-5518000000</v>
+        <v>123000000</v>
       </c>
       <c r="C47">
-        <v>-3750000000</v>
+        <v>6000000</v>
       </c>
       <c r="D47">
-        <v>-9023000000</v>
+        <v>76000000</v>
       </c>
       <c r="E47">
-        <v>-2750000000</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>575000000</v>
-      </c>
-      <c r="G47">
-        <v>-22972000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>53</v>
       </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>5250000000</v>
-      </c>
-      <c r="G48">
-        <v>-6888000000</v>
-      </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>54</v>
       </c>
+      <c r="B49">
+        <v>9973000000</v>
+      </c>
+      <c r="C49">
+        <v>-5203000000</v>
+      </c>
+      <c r="D49">
+        <v>-3527000000</v>
+      </c>
+      <c r="E49">
+        <v>2589000000</v>
+      </c>
       <c r="F49">
-        <v>5250000000</v>
+        <v>3853000000</v>
+      </c>
+      <c r="G49">
+        <v>3325000000</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1644,7 +1563,22 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>9973000000</v>
+      </c>
+      <c r="C50">
+        <v>-5203000000</v>
+      </c>
+      <c r="D50">
+        <v>-3527000000</v>
+      </c>
+      <c r="E50">
+        <v>2589000000</v>
+      </c>
+      <c r="F50">
+        <v>3853000000</v>
+      </c>
+      <c r="G50">
+        <v>3325000000</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1652,22 +1586,22 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>-5518000000</v>
+        <v>-1910000000</v>
       </c>
       <c r="C51">
-        <v>-3750000000</v>
+        <v>-5284000000</v>
       </c>
       <c r="D51">
-        <v>-9023000000</v>
+        <v>-3364000000</v>
       </c>
       <c r="E51">
-        <v>-2750000000</v>
+        <v>2580000000</v>
       </c>
       <c r="F51">
-        <v>-4675000000</v>
+        <v>3244000000</v>
       </c>
       <c r="G51">
-        <v>-16084000000</v>
+        <v>2383000000</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1675,13 +1609,22 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-1910000000</v>
+      </c>
+      <c r="C52">
+        <v>-5284000000</v>
+      </c>
+      <c r="D52">
+        <v>-3364000000</v>
+      </c>
+      <c r="E52">
+        <v>2580000000</v>
       </c>
       <c r="F52">
-        <v>24395000000</v>
+        <v>3244000000</v>
       </c>
       <c r="G52">
-        <v>197000000</v>
+        <v>2383000000</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1689,22 +1632,22 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>-5518000000</v>
+        <v>9713000000</v>
       </c>
       <c r="C53">
-        <v>-3750000000</v>
+        <v>8883000000</v>
       </c>
       <c r="D53">
-        <v>-9023000000</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>-2750000000</v>
+        <v>3931000000</v>
       </c>
       <c r="F53">
-        <v>-29070000000</v>
+        <v>5744000000</v>
       </c>
       <c r="G53">
-        <v>-16281000000</v>
+        <v>5593000000</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1712,22 +1655,22 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>-15137000000</v>
+        <v>-11623000000</v>
       </c>
       <c r="C54">
-        <v>-16521000000</v>
+        <v>-14167000000</v>
       </c>
       <c r="D54">
-        <v>-18135000000</v>
+        <v>-3364000000</v>
       </c>
       <c r="E54">
-        <v>-19800000000</v>
+        <v>-1351000000</v>
       </c>
       <c r="F54">
-        <v>-21771000000</v>
+        <v>-2500000000</v>
       </c>
       <c r="G54">
-        <v>-23487000000</v>
+        <v>-3210000000</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1735,22 +1678,22 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>-15137000000</v>
+        <v>-578000000</v>
       </c>
       <c r="C55">
-        <v>-16521000000</v>
+        <v>-448000000</v>
       </c>
       <c r="D55">
-        <v>-18135000000</v>
+        <v>-502000000</v>
       </c>
       <c r="E55">
-        <v>-19800000000</v>
+        <v>-464000000</v>
       </c>
       <c r="F55">
-        <v>-21771000000</v>
+        <v>-381000000</v>
       </c>
       <c r="G55">
-        <v>-23487000000</v>
+        <v>-323000000</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1758,73 +1701,73 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>-15137000000</v>
+        <v>-578000000</v>
       </c>
       <c r="C56">
-        <v>-16521000000</v>
+        <v>-448000000</v>
       </c>
       <c r="D56">
-        <v>-18135000000</v>
+        <v>-502000000</v>
       </c>
       <c r="E56">
-        <v>-19800000000</v>
+        <v>-464000000</v>
       </c>
       <c r="F56">
-        <v>-21771000000</v>
+        <v>-381000000</v>
       </c>
       <c r="G56">
-        <v>-23487000000</v>
+        <v>-323000000</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>62</v>
       </c>
-      <c r="B57">
-        <v>-3751000000</v>
-      </c>
-      <c r="C57">
-        <v>-2523000000</v>
-      </c>
-      <c r="D57">
-        <v>-863000000</v>
-      </c>
-      <c r="E57">
-        <v>-1006000000</v>
-      </c>
-      <c r="F57">
-        <v>-1309000000</v>
-      </c>
-      <c r="G57">
-        <v>-1917000000</v>
-      </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>63</v>
       </c>
+      <c r="B58">
+        <v>-11000000</v>
+      </c>
+      <c r="C58">
+        <v>-8000000</v>
+      </c>
+      <c r="D58">
+        <v>-45000000</v>
+      </c>
+      <c r="E58">
+        <v>-54000000</v>
+      </c>
+      <c r="F58">
+        <v>-133000000</v>
+      </c>
+      <c r="G58">
+        <v>-32000000</v>
+      </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>64</v>
       </c>
       <c r="B59">
-        <v>13576000000</v>
+        <v>-6000000</v>
       </c>
       <c r="C59">
-        <v>14224000000</v>
+        <v>-9000000</v>
       </c>
       <c r="D59">
-        <v>13931000000</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>34704000000</v>
+        <v>-29000000</v>
       </c>
       <c r="F59">
-        <v>18315000000</v>
+        <v>-14000000</v>
       </c>
       <c r="G59">
-        <v>28828000000</v>
+        <v>-11000000</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1832,22 +1775,22 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>2421000000</v>
+        <v>-6000000</v>
       </c>
       <c r="C60">
-        <v>677000000</v>
+        <v>-9000000</v>
       </c>
       <c r="D60">
-        <v>-152000000</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>20967000000</v>
+        <v>-29000000</v>
       </c>
       <c r="F60">
-        <v>-16179000000</v>
+        <v>-14000000</v>
       </c>
       <c r="G60">
-        <v>9417000000</v>
+        <v>-11000000</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1855,22 +1798,22 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>-201000000</v>
+        <v>-208000000</v>
       </c>
       <c r="C61">
-        <v>-29000000</v>
+        <v>-161000000</v>
       </c>
       <c r="D61">
-        <v>-141000000</v>
+        <v>-157000000</v>
       </c>
       <c r="E61">
-        <v>-194000000</v>
+        <v>-144000000</v>
       </c>
       <c r="F61">
-        <v>-210000000</v>
+        <v>-104000000</v>
       </c>
       <c r="G61">
-        <v>-223000000</v>
+        <v>-96000000</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1878,55 +1821,232 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>11356000000</v>
+        <v>417000000</v>
       </c>
       <c r="C62">
-        <v>13576000000</v>
+        <v>707000000</v>
       </c>
       <c r="D62">
-        <v>14224000000</v>
+        <v>541000000</v>
       </c>
       <c r="E62">
-        <v>13931000000</v>
+        <v>700000000</v>
       </c>
       <c r="F62">
-        <v>34704000000</v>
+        <v>1241000000</v>
       </c>
       <c r="G62">
-        <v>19634000000</v>
+        <v>1303000000</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>68</v>
       </c>
+      <c r="B63">
+        <v>12269000000</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>69</v>
       </c>
       <c r="B64">
-        <v>2220000000</v>
+        <v>12269000000</v>
       </c>
       <c r="C64">
-        <v>648000000</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>-293000000</v>
-      </c>
-      <c r="E64">
-        <v>20773000000</v>
-      </c>
-      <c r="F64">
-        <v>-16389000000</v>
-      </c>
-      <c r="G64">
-        <v>9194000000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>70</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66">
+        <v>19901000000</v>
+      </c>
+      <c r="C66">
+        <v>18144000000</v>
+      </c>
+      <c r="D66">
+        <v>16924000000</v>
+      </c>
+      <c r="E66">
+        <v>17189000000</v>
+      </c>
+      <c r="F66">
+        <v>17037000000</v>
+      </c>
+      <c r="G66">
+        <v>17250000000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67">
+        <v>12784000000</v>
+      </c>
+      <c r="C67">
+        <v>-1574000000</v>
+      </c>
+      <c r="D67">
+        <v>-776000000</v>
+      </c>
+      <c r="E67">
+        <v>261000000</v>
+      </c>
+      <c r="F67">
+        <v>-11000000</v>
+      </c>
+      <c r="G67">
+        <v>4808000000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68">
+        <v>334000000</v>
+      </c>
+      <c r="C68">
+        <v>-183000000</v>
+      </c>
+      <c r="D68">
+        <v>-444000000</v>
+      </c>
+      <c r="E68">
+        <v>4000000</v>
+      </c>
+      <c r="F68">
+        <v>-141000000</v>
+      </c>
+      <c r="G68">
+        <v>-22000000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69">
+        <v>6783000000</v>
+      </c>
+      <c r="C69">
+        <v>19901000000</v>
+      </c>
+      <c r="D69">
+        <v>18144000000</v>
+      </c>
+      <c r="E69">
+        <v>16924000000</v>
+      </c>
+      <c r="F69">
+        <v>17189000000</v>
+      </c>
+      <c r="G69">
+        <v>12464000000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71">
+        <v>13118000000</v>
+      </c>
+      <c r="C71">
+        <v>-1757000000</v>
+      </c>
+      <c r="D71">
+        <v>-1220000000</v>
+      </c>
+      <c r="E71">
+        <v>265000000</v>
+      </c>
+      <c r="F71">
+        <v>-152000000</v>
+      </c>
+      <c r="G71">
+        <v>4786000000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72">
+        <v>-115000000</v>
+      </c>
+      <c r="C72">
+        <v>-561000000</v>
+      </c>
+      <c r="D72">
+        <v>-1203000000</v>
+      </c>
+      <c r="E72">
+        <v>-1119000000</v>
+      </c>
+      <c r="F72">
+        <v>-1331000000</v>
+      </c>
+      <c r="G72">
+        <v>-1331000000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73">
+        <v>-444000000</v>
+      </c>
+      <c r="C73">
+        <v>-266000000</v>
+      </c>
+      <c r="D73">
+        <v>-152000000</v>
+      </c>
+      <c r="E73">
+        <v>-126000000</v>
+      </c>
+      <c r="F73">
+        <v>-277000000</v>
+      </c>
+      <c r="G73">
+        <v>-277000000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
